--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Adam11</t>
+  </si>
+  <si>
+    <t>Itga4</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam11</t>
-  </si>
-  <si>
-    <t>Itga4</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.168045</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="H2">
-        <v>0.504135</v>
+        <v>0.379843</v>
       </c>
       <c r="I2">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="J2">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>0.01626653194</v>
+        <v>0.1399245385106667</v>
       </c>
       <c r="R2">
-        <v>0.14639878746</v>
+        <v>1.259320846596</v>
       </c>
       <c r="S2">
-        <v>3.974852321035383E-05</v>
+        <v>0.0006600825701095175</v>
       </c>
       <c r="T2">
-        <v>3.974852321035382E-05</v>
+        <v>0.0006600825701095175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.168045</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="H3">
-        <v>0.504135</v>
+        <v>0.379843</v>
       </c>
       <c r="I3">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="J3">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.00746500702</v>
+        <v>0.005624546324888889</v>
       </c>
       <c r="R3">
-        <v>0.06718506318</v>
+        <v>0.050620916924</v>
       </c>
       <c r="S3">
-        <v>1.824131940934942E-05</v>
+        <v>2.653333742136785E-05</v>
       </c>
       <c r="T3">
-        <v>1.824131940934942E-05</v>
+        <v>2.653333742136785E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.168045</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="H4">
-        <v>0.504135</v>
+        <v>0.379843</v>
       </c>
       <c r="I4">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="J4">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>10.24360275141</v>
+        <v>7.159429467022555</v>
       </c>
       <c r="R4">
-        <v>92.19242476269001</v>
+        <v>64.43486520320299</v>
       </c>
       <c r="S4">
-        <v>0.02503103201247363</v>
+        <v>0.03377402315141318</v>
       </c>
       <c r="T4">
-        <v>0.02503103201247363</v>
+        <v>0.03377402315141318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.168045</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="H5">
-        <v>0.504135</v>
+        <v>0.379843</v>
       </c>
       <c r="I5">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="J5">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>0.273576867895</v>
+        <v>0.101852241549</v>
       </c>
       <c r="R5">
-        <v>2.462191811055</v>
+        <v>0.9166701739409998</v>
       </c>
       <c r="S5">
-        <v>0.0006685061403039491</v>
+        <v>0.0004804796220067875</v>
       </c>
       <c r="T5">
-        <v>0.0006685061403039491</v>
+        <v>0.0004804796220067875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.168045</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="H6">
-        <v>0.504135</v>
+        <v>0.379843</v>
       </c>
       <c r="I6">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="J6">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>10.65333163883</v>
+        <v>9.887198493004444</v>
       </c>
       <c r="R6">
-        <v>95.87998474947</v>
+        <v>88.98478643704</v>
       </c>
       <c r="S6">
-        <v>0.02603223609528849</v>
+        <v>0.04664205050744411</v>
       </c>
       <c r="T6">
-        <v>0.02603223609528848</v>
+        <v>0.0466420505074441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.168045</v>
+        <v>0.1266143333333333</v>
       </c>
       <c r="H7">
-        <v>0.504135</v>
+        <v>0.379843</v>
       </c>
       <c r="I7">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="J7">
-        <v>0.08555333432892558</v>
+        <v>0.0955140869844225</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>13.81727292816</v>
+        <v>2.953080920339666</v>
       </c>
       <c r="R7">
-        <v>124.35545635344</v>
+        <v>26.577728283057</v>
       </c>
       <c r="S7">
-        <v>0.03376357023823982</v>
+        <v>0.01393091779602753</v>
       </c>
       <c r="T7">
-        <v>0.03376357023823982</v>
+        <v>0.01393091779602753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3243313333333333</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H8">
-        <v>0.9729939999999999</v>
+        <v>0.972994</v>
       </c>
       <c r="I8">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="J8">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>0.03139484062488888</v>
+        <v>0.3584263404186667</v>
       </c>
       <c r="R8">
-        <v>0.282553565624</v>
+        <v>3.225837063768</v>
       </c>
       <c r="S8">
-        <v>7.67157102612098E-05</v>
+        <v>0.001690846955771569</v>
       </c>
       <c r="T8">
-        <v>7.671571026120979E-05</v>
+        <v>0.001690846955771569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3243313333333333</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H9">
-        <v>0.9729939999999999</v>
+        <v>0.972994</v>
       </c>
       <c r="I9">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="J9">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>0.01440766271022222</v>
@@ -1013,10 +1013,10 @@
         <v>0.129668964392</v>
       </c>
       <c r="S9">
-        <v>3.52062331268024E-05</v>
+        <v>6.796697085629166E-05</v>
       </c>
       <c r="T9">
-        <v>3.520623312680239E-05</v>
+        <v>6.796697085629166E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3243313333333333</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H10">
-        <v>0.9729939999999999</v>
+        <v>0.972994</v>
       </c>
       <c r="I10">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="J10">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>19.770426603004</v>
+        <v>18.33937156887489</v>
       </c>
       <c r="R10">
-        <v>177.933839427036</v>
+        <v>165.054344119874</v>
       </c>
       <c r="S10">
-        <v>0.04831055959603036</v>
+        <v>0.08651448593810106</v>
       </c>
       <c r="T10">
-        <v>0.04831055959603035</v>
+        <v>0.08651448593810106</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3243313333333333</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H11">
-        <v>0.9729939999999999</v>
+        <v>0.972994</v>
       </c>
       <c r="I11">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="J11">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>0.5280106538935555</v>
+        <v>0.260901530142</v>
       </c>
       <c r="R11">
-        <v>4.752095885041999</v>
+        <v>2.348113771278</v>
       </c>
       <c r="S11">
-        <v>0.001290234686103723</v>
+        <v>0.001230781636978626</v>
       </c>
       <c r="T11">
-        <v>0.001290234686103723</v>
+        <v>0.001230781636978626</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3243313333333333</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H12">
-        <v>0.9729939999999999</v>
+        <v>0.972994</v>
       </c>
       <c r="I12">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="J12">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>20.56121428702977</v>
+        <v>25.32673975959111</v>
       </c>
       <c r="R12">
-        <v>185.050928583268</v>
+        <v>227.94065783632</v>
       </c>
       <c r="S12">
-        <v>0.05024291018734887</v>
+        <v>0.1194768240863727</v>
       </c>
       <c r="T12">
-        <v>0.05024291018734885</v>
+        <v>0.1194768240863727</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3243313333333333</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="H13">
-        <v>0.9729939999999999</v>
+        <v>0.972994</v>
       </c>
       <c r="I13">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="J13">
-        <v>0.1651202177631757</v>
+        <v>0.2446659107876707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>26.66770538737067</v>
+        <v>7.564520122800666</v>
       </c>
       <c r="R13">
-        <v>240.009348486336</v>
+        <v>68.080681105206</v>
       </c>
       <c r="S13">
-        <v>0.06516459135030479</v>
+        <v>0.03568500519959041</v>
       </c>
       <c r="T13">
-        <v>0.06516459135030479</v>
+        <v>0.0356850051995904</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01482133333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="H14">
-        <v>0.044464</v>
+        <v>0.169331</v>
       </c>
       <c r="I14">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="J14">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>0.001434685304888889</v>
+        <v>0.06237725068133334</v>
       </c>
       <c r="R14">
-        <v>0.012912167744</v>
+        <v>0.561395256132</v>
       </c>
       <c r="S14">
-        <v>3.50576400373942E-06</v>
+        <v>0.0002942595800876013</v>
       </c>
       <c r="T14">
-        <v>3.505764003739419E-06</v>
+        <v>0.0002942595800876013</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01482133333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="H15">
-        <v>0.044464</v>
+        <v>0.169331</v>
       </c>
       <c r="I15">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="J15">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>0.0006584031502222221</v>
+        <v>0.002507378189777778</v>
       </c>
       <c r="R15">
-        <v>0.005925628351999999</v>
+        <v>0.022566403708</v>
       </c>
       <c r="S15">
-        <v>1.608858790239346E-06</v>
+        <v>1.182835160552555E-05</v>
       </c>
       <c r="T15">
-        <v>1.608858790239345E-06</v>
+        <v>1.182835160552555E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01482133333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="H16">
-        <v>0.044464</v>
+        <v>0.169331</v>
       </c>
       <c r="I16">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="J16">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>0.903471397024</v>
+        <v>3.191616934050111</v>
       </c>
       <c r="R16">
-        <v>8.131242573215999</v>
+        <v>28.724552406451</v>
       </c>
       <c r="S16">
-        <v>0.002207701919927455</v>
+        <v>0.01505619193785839</v>
       </c>
       <c r="T16">
-        <v>0.002207701919927454</v>
+        <v>0.01505619193785839</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.01482133333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="H17">
-        <v>0.044464</v>
+        <v>0.169331</v>
       </c>
       <c r="I17">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="J17">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>0.02412909608355555</v>
+        <v>0.045404922333</v>
       </c>
       <c r="R17">
-        <v>0.217161864752</v>
+        <v>0.4086443009969999</v>
       </c>
       <c r="S17">
-        <v>5.896130406037032E-05</v>
+        <v>0.0002141940087721278</v>
       </c>
       <c r="T17">
-        <v>5.896130406037032E-05</v>
+        <v>0.0002141940087721278</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.01482133333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="H18">
-        <v>0.044464</v>
+        <v>0.169331</v>
       </c>
       <c r="I18">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="J18">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>0.9396089102897777</v>
+        <v>4.407634754408889</v>
       </c>
       <c r="R18">
-        <v>8.456480192607998</v>
+        <v>39.66871278968</v>
       </c>
       <c r="S18">
-        <v>0.002296006715940982</v>
+        <v>0.02079265658305147</v>
       </c>
       <c r="T18">
-        <v>0.002296006715940982</v>
+        <v>0.02079265658305146</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.01482133333333333</v>
+        <v>0.05644366666666667</v>
       </c>
       <c r="H19">
-        <v>0.044464</v>
+        <v>0.169331</v>
       </c>
       <c r="I19">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="J19">
-        <v>0.007545684107632572</v>
+        <v>0.0425794232437066</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>1.218664094890667</v>
+        <v>1.316460077774333</v>
       </c>
       <c r="R19">
-        <v>10.967976854016</v>
+        <v>11.848140699969</v>
       </c>
       <c r="S19">
-        <v>0.002977899544909787</v>
+        <v>0.006210292782331486</v>
       </c>
       <c r="T19">
-        <v>0.002977899544909786</v>
+        <v>0.006210292782331486</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.135989666666667</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="H20">
-        <v>3.407969</v>
+        <v>2.454659</v>
       </c>
       <c r="I20">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="J20">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>0.1099622850804444</v>
+        <v>0.9042341909053333</v>
       </c>
       <c r="R20">
-        <v>0.989660565724</v>
+        <v>8.138107718147999</v>
       </c>
       <c r="S20">
-        <v>0.0002687013099599637</v>
+        <v>0.004265650864863795</v>
       </c>
       <c r="T20">
-        <v>0.0002687013099599637</v>
+        <v>0.004265650864863794</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.135989666666667</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="H21">
-        <v>3.407969</v>
+        <v>2.454659</v>
       </c>
       <c r="I21">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="J21">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>0.05046369029911111</v>
+        <v>0.03634749951244445</v>
       </c>
       <c r="R21">
-        <v>0.454173212692</v>
+        <v>0.327127495612</v>
       </c>
       <c r="S21">
-        <v>0.0001233119126149962</v>
+        <v>0.0001714663571565025</v>
       </c>
       <c r="T21">
-        <v>0.0001233119126149962</v>
+        <v>0.0001714663571565025</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.135989666666667</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="H22">
-        <v>3.407969</v>
+        <v>2.454659</v>
       </c>
       <c r="I22">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="J22">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>69.24708783385401</v>
+        <v>46.26637314914878</v>
       </c>
       <c r="R22">
-        <v>623.223790504686</v>
+        <v>416.3973583423389</v>
       </c>
       <c r="S22">
-        <v>0.1692105906880454</v>
+        <v>0.218257832564572</v>
       </c>
       <c r="T22">
-        <v>0.1692105906880453</v>
+        <v>0.218257832564572</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.135989666666667</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="H23">
-        <v>3.407969</v>
+        <v>2.454659</v>
       </c>
       <c r="I23">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="J23">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>1.849388526690778</v>
+        <v>0.6581996282369998</v>
       </c>
       <c r="R23">
-        <v>16.644496740217</v>
+        <v>5.923796654132999</v>
       </c>
       <c r="S23">
-        <v>0.004519123255607147</v>
+        <v>0.003105002931409975</v>
       </c>
       <c r="T23">
-        <v>0.004519123255607147</v>
+        <v>0.003105002931409974</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.135989666666667</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="H24">
-        <v>3.407969</v>
+        <v>2.454659</v>
       </c>
       <c r="I24">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="J24">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>72.01686844169089</v>
+        <v>63.89403191750223</v>
       </c>
       <c r="R24">
-        <v>648.1518159752179</v>
+        <v>575.04628725752</v>
       </c>
       <c r="S24">
-        <v>0.1759787628580126</v>
+        <v>0.3014148715562806</v>
       </c>
       <c r="T24">
-        <v>0.1759787628580126</v>
+        <v>0.3014148715562804</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.135989666666667</v>
+        <v>0.8182196666666667</v>
       </c>
       <c r="H25">
-        <v>3.407969</v>
+        <v>2.454659</v>
       </c>
       <c r="I25">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842003</v>
       </c>
       <c r="J25">
-        <v>0.5783433231963941</v>
+        <v>0.6172405789842002</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>93.40521448363735</v>
+        <v>19.08369157478233</v>
       </c>
       <c r="R25">
-        <v>840.646930352736</v>
+        <v>171.753224173041</v>
       </c>
       <c r="S25">
-        <v>0.2282428331721541</v>
+        <v>0.09002575470991742</v>
       </c>
       <c r="T25">
-        <v>0.2282428331721541</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.321026</v>
-      </c>
-      <c r="H26">
-        <v>0.9630780000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="J26">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.09679866666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.290396</v>
-      </c>
-      <c r="O26">
-        <v>0.0004646051906934836</v>
-      </c>
-      <c r="P26">
-        <v>0.0004646051906934836</v>
-      </c>
-      <c r="Q26">
-        <v>0.03107488876533333</v>
-      </c>
-      <c r="R26">
-        <v>0.279673998888</v>
-      </c>
-      <c r="S26">
-        <v>7.593388325821684E-05</v>
-      </c>
-      <c r="T26">
-        <v>7.593388325821683E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.321026</v>
-      </c>
-      <c r="H27">
-        <v>0.9630780000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="J27">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M27">
-        <v>0.04442266666666667</v>
-      </c>
-      <c r="N27">
-        <v>0.133268</v>
-      </c>
-      <c r="O27">
-        <v>0.0002132157624531301</v>
-      </c>
-      <c r="P27">
-        <v>0.0002132157624531301</v>
-      </c>
-      <c r="Q27">
-        <v>0.01426083098933333</v>
-      </c>
-      <c r="R27">
-        <v>0.128347478904</v>
-      </c>
-      <c r="S27">
-        <v>3.484743851174273E-05</v>
-      </c>
-      <c r="T27">
-        <v>3.484743851174273E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.321026</v>
-      </c>
-      <c r="H28">
-        <v>0.9630780000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="J28">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>60.95749800000001</v>
-      </c>
-      <c r="N28">
-        <v>182.872494</v>
-      </c>
-      <c r="O28">
-        <v>0.2925781000683996</v>
-      </c>
-      <c r="P28">
-        <v>0.2925781000683995</v>
-      </c>
-      <c r="Q28">
-        <v>19.568941752948</v>
-      </c>
-      <c r="R28">
-        <v>176.120475776532</v>
-      </c>
-      <c r="S28">
-        <v>0.04781821585192277</v>
-      </c>
-      <c r="T28">
-        <v>0.04781821585192276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.321026</v>
-      </c>
-      <c r="H29">
-        <v>0.9630780000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="J29">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.627997666666667</v>
-      </c>
-      <c r="N29">
-        <v>4.883993</v>
-      </c>
-      <c r="O29">
-        <v>0.007813911001221226</v>
-      </c>
-      <c r="P29">
-        <v>0.007813911001221226</v>
-      </c>
-      <c r="Q29">
-        <v>0.5226295789393334</v>
-      </c>
-      <c r="R29">
-        <v>4.703666210454001</v>
-      </c>
-      <c r="S29">
-        <v>0.001277085615146036</v>
-      </c>
-      <c r="T29">
-        <v>0.001277085615146036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.321026</v>
-      </c>
-      <c r="H30">
-        <v>0.9630780000000001</v>
-      </c>
-      <c r="I30">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="J30">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>63.39570733333333</v>
-      </c>
-      <c r="N30">
-        <v>190.187122</v>
-      </c>
-      <c r="O30">
-        <v>0.3042807892817216</v>
-      </c>
-      <c r="P30">
-        <v>0.3042807892817216</v>
-      </c>
-      <c r="Q30">
-        <v>20.35167034239067</v>
-      </c>
-      <c r="R30">
-        <v>183.165033081516</v>
-      </c>
-      <c r="S30">
-        <v>0.04973087342513066</v>
-      </c>
-      <c r="T30">
-        <v>0.04973087342513065</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.321026</v>
-      </c>
-      <c r="H31">
-        <v>0.9630780000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="J31">
-        <v>0.163437440603872</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>82.22364800000001</v>
-      </c>
-      <c r="N31">
-        <v>246.670944</v>
-      </c>
-      <c r="O31">
-        <v>0.3946493786955111</v>
-      </c>
-      <c r="P31">
-        <v>0.394649378695511</v>
-      </c>
-      <c r="Q31">
-        <v>26.39592882284801</v>
-      </c>
-      <c r="R31">
-        <v>237.563359405632</v>
-      </c>
-      <c r="S31">
-        <v>0.06450048438990257</v>
-      </c>
-      <c r="T31">
-        <v>0.06450048438990257</v>
+        <v>0.09002575470991739</v>
       </c>
     </row>
   </sheetData>
